--- a/biology/Médecine/Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez/Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez.xlsx
+++ b/biology/Médecine/Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez/Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_%C3%A9l%C3%A9vateur_de_la_l%C3%A8vre_sup%C3%A9rieure_et_de_l%27aile_du_nez</t>
+          <t>Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle élévateur de la lèvre supérieure et de l'aile du nez (Musculus levator labii superioris alaeque nasi en latin), ou muscle élévateur commun de la lèvre supérieure et de l’aile du nez ou muscle releveur naso-labial, est un muscle pair, mince, triangulaire placé sur le bord de l'aile du nez.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_%C3%A9l%C3%A9vateur_de_la_l%C3%A8vre_sup%C3%A9rieure_et_de_l%27aile_du_nez</t>
+          <t>Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine : il nait par une extrémité étroite du processus orbitaire interne de l'os frontal immédiatement en dessous du tendon du muscle orbiculaire de l'œil.
 Trajet : il se porte en bas et un peu obliquement en dehors et se divise en deux faisceaux : médial et latéral
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_%C3%A9l%C3%A9vateur_de_la_l%C3%A8vre_sup%C3%A9rieure_et_de_l%27aile_du_nez</t>
+          <t>Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par des rameaux zygomatiques du nerf facial
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_%C3%A9l%C3%A9vateur_de_la_l%C3%A8vre_sup%C3%A9rieure_et_de_l%27aile_du_nez</t>
+          <t>Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il attire vers le haut l'aile du nez et la lèvre supérieure, dégageant les dents.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_%C3%A9l%C3%A9vateur_de_la_l%C3%A8vre_sup%C3%A9rieure_et_de_l%27aile_du_nez</t>
+          <t>Muscle_élévateur_de_la_lèvre_supérieure_et_de_l'aile_du_nez</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Recouvert par la peau et à son sommet par le muscle orbiculaire de l'œil, il recouvre le processus montant du maxillaire et le muscle transverse du nez.
 </t>
